--- a/courses_database.xlsx
+++ b/courses_database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSc Computer Science - SNUT\Capstone Project\Ares\AutoAttendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSc Computer Science - SNUT\Capstone Project\Capstone_AttendanceManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2836E511-52CB-4C31-AC6D-854CACC67CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A379EA43-8939-4D0F-ABF6-5C21E5F3708F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>교수명</t>
   </si>
   <si>
-    <t>학생자리</t>
-  </si>
-  <si>
     <t>인공지능</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>학점</t>
+  </si>
+  <si>
+    <t>수강정원</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,13 +429,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -443,19 +443,19 @@
         <v>101037</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>11007</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
         <v>60</v>
@@ -466,22 +466,22 @@
         <v>109215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>31001</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
